--- a/aml_docs/savings_account_statement.xlsx
+++ b/aml_docs/savings_account_statement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Downloads\aml docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/prince183378_exlservice_com/Documents/Desktop/3months/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B43750-6265-494B-B1B0-764F2E268339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D3B43750-6265-494B-B1B0-764F2E268339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B290F9BE-65DE-4075-8FFC-97CD94B2015F}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -160,39 +160,18 @@
     <t xml:space="preserve"> Balance ($) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 1, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Opening Balance                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 3, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Paycheck - XYZ Corporation    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 6, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Grocery Store - Fresh Mart    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 10, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Rent Payment - Apt Management  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 12, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ATM Withdrawal - ABC Bank     </t>
   </si>
   <si>
-    <t>Jan 13, 2022</t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -202,156 +181,27 @@
     <t>Cash Deposit- Self</t>
   </si>
   <si>
-    <t>Jan 14, 2022</t>
-  </si>
-  <si>
     <t>Utility Bill Payment</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 15, 2022</t>
-  </si>
-  <si>
     <t>Towards ABC Credit Card payment</t>
   </si>
   <si>
     <t xml:space="preserve"> Gas Station - Fuel Stop       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 17, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Restaurant - Lunch with Friends</t>
-  </si>
-  <si>
-    <t>Jan 18, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 19, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pharmacy - Prescription Meds  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 22, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 24, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 26, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ATM Withdrawal - DEF Bank     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 28, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bookstore - Purchase of Books </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 30, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Internet Bill - ABC Internet  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 31, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 3, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 5, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 10, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 11, 2022</t>
-  </si>
-  <si>
-    <t>Feb 12, 2022</t>
-  </si>
-  <si>
-    <t>Feb 13, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 15, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 17, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Restaurant - Dinner with Friends</t>
   </si>
   <si>
-    <t xml:space="preserve"> Feb 20, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 22, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 25, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 26, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 28, 2022</t>
-  </si>
-  <si>
-    <t>March 2, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 3, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 5, 2022</t>
-  </si>
-  <si>
-    <t>Mar 7, 2022</t>
-  </si>
-  <si>
-    <t>Mar 8, 2022</t>
-  </si>
-  <si>
-    <t>Mar 9, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 10, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 12, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 15, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 17, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 20, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 21, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 22, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 25, 2022</t>
-  </si>
-  <si>
-    <t>Mar 25, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 26, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 28, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Apr 3, 2022</t>
   </si>
   <si>
@@ -485,15 +335,6 @@
   </si>
   <si>
     <t>Jul 6, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 15, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 5, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 22, 2021</t>
   </si>
   <si>
     <t xml:space="preserve"> Apr 11, 2023</t>
@@ -524,8 +365,14 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 01/01/2022 – 07/06/2022</t>
+      <t xml:space="preserve"> 04/01/2022 – 07/06/2022</t>
     </r>
+  </si>
+  <si>
+    <t>Apr 1, 2022</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
   </si>
   <si>
     <r>
@@ -538,7 +385,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>$ 56,682.00</t>
+      <t>$ 32,580.00</t>
     </r>
   </si>
 </sst>
@@ -930,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -967,7 +814,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -977,12 +824,12 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1004,199 +851,195 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
+        <v>77</v>
+      </c>
+      <c r="D14">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" ref="E15:E82" si="0">SUM(D15,-C15,E14)</f>
-        <v>14000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>13800</v>
+        <f>SUM(D16,-C16,E15)</f>
+        <v>14730</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1000</v>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>12800</v>
+        <f>SUM(D17,-C17,E16)</f>
+        <v>14630</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>12500</v>
+        <f>SUM(D18,-C18,E17)</f>
+        <v>13430</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>12400</v>
+        <f>SUM(D19,-C19,E18)</f>
+        <v>13365</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>11200</v>
+        <f>SUM(D20,-C20,E19)</f>
+        <v>13315</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1250</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>11150</v>
+        <f>SUM(D21,-C21,E20)</f>
+        <v>12065</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>150</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>11110</v>
+        <f>SUM(D22,-C22,E21)</f>
+        <v>11915</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>1211</v>
+        <v>350</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>9899</v>
+        <f>SUM(D23,-C23,E21)</f>
+        <v>11715</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>9839</v>
+        <f>SUM(D24,-C24,E23)</f>
+        <v>11675</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1207,14 +1050,14 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>14839</v>
+        <f>SUM(D25,-C25,E24)</f>
+        <v>11605</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1222,727 +1065,727 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>14814</v>
+        <f>SUM(D26,-C26,E25)</f>
+        <v>11570</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>18814</v>
+        <f>SUM(D27,-C27,E26)</f>
+        <v>16570</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>18634</v>
+        <f>SUM(D28,-C28,E27)</f>
+        <v>16330</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>18434</v>
+        <f>SUM(D29,-C29,E28)</f>
+        <v>16050</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>18384</v>
+        <f t="shared" ref="E30:E68" si="0">SUM(D30,-C30,E29)</f>
+        <v>15985</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5000</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="0"/>
-        <v>18339</v>
+        <v>20985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>18304</v>
+        <v>20725</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>23304</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>23254</v>
+        <v>19045</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="0"/>
-        <v>22998</v>
+        <v>18945</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f>SUM(D36,-C36,E34)</f>
-        <v>23004</v>
+        <f t="shared" si="0"/>
+        <v>17745</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3">
-        <v>1200</v>
+      <c r="C37">
+        <v>60</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>21804</v>
+        <v>17685</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="0"/>
-        <v>21404</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>21304</v>
+        <v>17570</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="0"/>
-        <v>20104</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="0"/>
-        <v>20054</v>
+        <f>SUM(D41,-C41,E39)</f>
+        <v>17540</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>35</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5000</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>20019</v>
+        <v>22540</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>19944</v>
+        <v>22310</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>19914</v>
+        <v>22030</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>5000</v>
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>24914</v>
+        <v>21970</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>220</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5000</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>24694</v>
+        <v>26970</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
-        <v>24394</v>
+        <v>26720</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1300</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>24334</v>
+        <v>25420</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>420</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>24284</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="4">
-        <v>657</v>
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>23627</v>
+        <v>24950</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>5000</v>
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="0"/>
-        <v>28627</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="0"/>
-        <v>28367</v>
+        <v>23650</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>28267</v>
+        <v>23590</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>1200</v>
+        <v>85</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="0"/>
-        <v>27067</v>
+        <v>23505</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="0"/>
-        <v>27017</v>
+        <v>23470</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5000</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>25717</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>25367</v>
+        <v>28230</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="0"/>
-        <v>25337</v>
+        <v>27910</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>70</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="0"/>
-        <v>25267</v>
+        <v>37910</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60">
-        <v>40</v>
-      </c>
-      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10350</v>
+      </c>
+      <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>25227</v>
+        <v>27560</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>50</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>25177</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62">
-        <v>2317</v>
-      </c>
-      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="3">
         <v>0</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="0"/>
-        <v>22860</v>
+        <v>27560</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E63" s="3">
-        <f>SUM(D63,-C63,E61)</f>
-        <v>30177</v>
+        <f t="shared" si="0"/>
+        <v>37560</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64">
-        <v>230</v>
-      </c>
-      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9500</v>
+      </c>
+      <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="0"/>
-        <v>29947</v>
+        <v>28060</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>4500</v>
+      <c r="D65" s="3">
+        <v>5000</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="0"/>
-        <v>34447</v>
+        <v>33060</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>280</v>
@@ -1952,1002 +1795,44 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="0"/>
-        <v>34167</v>
+        <v>32780</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>10000</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>34102</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C68" s="4">
+        <v>10200</v>
       </c>
       <c r="D68" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>39102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>270</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="0"/>
-        <v>38832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="0"/>
-        <v>38732</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71">
-        <v>1200</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="0"/>
-        <v>37532</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>65</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="0"/>
-        <v>37467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73">
-        <v>50</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="0"/>
-        <v>37417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1250</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="0"/>
-        <v>36167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="3">
-        <v>350</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="0"/>
-        <v>35817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76">
-        <v>350</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <f>SUM(D76,-C76,E74)</f>
-        <v>35817</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77">
-        <v>40</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="0"/>
-        <v>35777</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78">
-        <v>70</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="0"/>
-        <v>35707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79">
-        <v>35</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="0"/>
-        <v>35672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="0"/>
-        <v>40672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81">
-        <v>240</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="0"/>
-        <v>40432</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <v>280</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="0"/>
-        <v>40152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83">
-        <v>65</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" ref="E83:E152" si="1">SUM(D83,-C83,E82)</f>
-        <v>40087</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="1"/>
-        <v>45087</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85">
-        <v>260</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="1"/>
-        <v>44827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="1"/>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87">
-        <v>380</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="1"/>
-        <v>43147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="1"/>
-        <v>43047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <v>1200</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="1"/>
-        <v>41847</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90">
-        <v>60</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="1"/>
-        <v>41787</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91">
-        <v>45</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="1"/>
-        <v>41742</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92">
-        <v>70</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="1"/>
-        <v>41672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93">
-        <v>1240</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="1"/>
-        <v>40432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94">
-        <v>30</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <f>SUM(D94,-C94,E92)</f>
-        <v>41642</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="1"/>
-        <v>46642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96">
-        <v>230</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="1"/>
-        <v>46412</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97">
-        <v>280</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="1"/>
-        <v>46132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98">
-        <v>60</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" si="1"/>
-        <v>46072</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="1"/>
-        <v>51072</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100">
-        <v>250</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="1"/>
-        <v>50822</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="1"/>
-        <v>49522</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102">
-        <v>420</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="1"/>
-        <v>49102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103">
-        <v>50</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="1"/>
-        <v>49052</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104">
-        <v>100</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="1"/>
-        <v>48952</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105">
-        <v>1200</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="1"/>
-        <v>47752</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106">
-        <v>60</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="1"/>
-        <v>47692</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107">
-        <v>85</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="1"/>
-        <v>47607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108">
-        <v>35</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
-        <f t="shared" si="1"/>
-        <v>47572</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E109" s="3">
-        <f t="shared" si="1"/>
-        <v>52572</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110">
-        <v>240</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
-        <f t="shared" si="1"/>
-        <v>52332</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111">
-        <v>320</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
-        <f t="shared" si="1"/>
-        <v>52012</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E112" s="3">
-        <f t="shared" si="1"/>
-        <v>62012</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113" s="4">
-        <v>10350</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
-        <f t="shared" si="1"/>
-        <v>51662</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E114" s="3">
-        <f t="shared" si="1"/>
-        <v>61662</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B115" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
-        <f t="shared" si="1"/>
-        <v>51662</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E116" s="3">
-        <f t="shared" si="1"/>
-        <v>61662</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117" t="s">
-        <v>27</v>
-      </c>
-      <c r="C117" s="4">
-        <v>9500</v>
-      </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
-        <f t="shared" si="1"/>
-        <v>52162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E118" s="3">
-        <f t="shared" si="1"/>
-        <v>57162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119">
-        <v>280</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
-        <f t="shared" si="1"/>
-        <v>56882</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="1"/>
-        <v>66882</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="4">
-        <v>10200</v>
-      </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
-        <f t="shared" si="1"/>
-        <v>56682</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2"/>
-      <c r="E122" s="3"/>
+        <v>32580</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2"/>
@@ -2959,11 +1844,11 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2"/>
-      <c r="C125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2"/>
+      <c r="C126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5">
@@ -2980,7 +1865,6 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2"/>
-      <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5">
@@ -2990,6 +1874,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5">
@@ -3006,11 +1891,11 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2"/>
-      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5">
@@ -3023,20 +1908,20 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2"/>
-      <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2"/>
+      <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2"/>
-      <c r="C142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2"/>
+      <c r="C143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5">
@@ -3057,11 +1942,11 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2"/>
-      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5">
@@ -3075,6 +1960,10 @@
     <row r="152" spans="1:5">
       <c r="A152" s="2"/>
       <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2"/>
+      <c r="E153" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aml_docs/savings_account_statement.xlsx
+++ b/aml_docs/savings_account_statement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/prince183378_exlservice_com/Documents/Desktop/3months/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Gen-AI\SAR-AML-V3\aml_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D3B43750-6265-494B-B1B0-764F2E268339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B290F9BE-65DE-4075-8FFC-97CD94B2015F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C8FA9-D81E-43A4-BF9D-6C199173218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>$ 32,580.00</t>
+      <t>$ 31,830.00</t>
     </r>
   </si>
 </sst>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f>SUM(D16,-C16,E15)</f>
+        <f t="shared" ref="E16:E22" si="0">SUM(D16,-C16,E15)</f>
         <v>14730</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f>SUM(D17,-C17,E16)</f>
+        <f t="shared" si="0"/>
         <v>14630</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <f>SUM(D18,-C18,E17)</f>
+        <f t="shared" si="0"/>
         <v>13430</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f>SUM(D19,-C19,E18)</f>
+        <f t="shared" si="0"/>
         <v>13365</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f>SUM(D20,-C20,E19)</f>
+        <f t="shared" si="0"/>
         <v>13315</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f>SUM(D21,-C21,E20)</f>
+        <f t="shared" si="0"/>
         <v>12065</v>
       </c>
     </row>
@@ -996,14 +996,14 @@
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f>SUM(D22,-C22,E21)</f>
-        <v>11915</v>
+        <f t="shared" si="0"/>
+        <v>11165</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <f>SUM(D24,-C24,E23)</f>
+        <f t="shared" ref="E24:E29" si="1">SUM(D24,-C24,E23)</f>
         <v>11675</v>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f>SUM(D25,-C25,E24)</f>
+        <f t="shared" si="1"/>
         <v>11605</v>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f>SUM(D26,-C26,E25)</f>
+        <f t="shared" si="1"/>
         <v>11570</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>5000</v>
       </c>
       <c r="E27" s="3">
-        <f>SUM(D27,-C27,E26)</f>
+        <f t="shared" si="1"/>
         <v>16570</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f>SUM(D28,-C28,E27)</f>
+        <f t="shared" si="1"/>
         <v>16330</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f>SUM(D29,-C29,E28)</f>
+        <f t="shared" si="1"/>
         <v>16050</v>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ref="E30:E68" si="0">SUM(D30,-C30,E29)</f>
+        <f t="shared" ref="E30:E68" si="2">SUM(D30,-C30,E29)</f>
         <v>15985</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
         <v>5000</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20985</v>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20725</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19425</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19045</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18945</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17745</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17685</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17640</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17570</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16330</v>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>5000</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22540</v>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22310</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22030</v>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21970</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         <v>5000</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26970</v>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26720</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25420</v>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24950</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24850</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23650</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23590</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23505</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23470</v>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
         <v>5000</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28470</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28230</v>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27910</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37910</v>
       </c>
     </row>
@@ -1680,14 +1680,14 @@
         <v>18</v>
       </c>
       <c r="C60" s="4">
-        <v>10350</v>
+        <v>11100</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="0"/>
-        <v>27560</v>
+        <f t="shared" si="2"/>
+        <v>26810</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1704,8 +1704,8 @@
         <v>10000</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="0"/>
-        <v>37560</v>
+        <f t="shared" si="2"/>
+        <v>36810</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1722,8 +1722,8 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="0"/>
-        <v>27560</v>
+        <f t="shared" si="2"/>
+        <v>26810</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1740,8 +1740,8 @@
         <v>10000</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="0"/>
-        <v>37560</v>
+        <f t="shared" si="2"/>
+        <v>36810</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1758,8 +1758,8 @@
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="0"/>
-        <v>28060</v>
+        <f t="shared" si="2"/>
+        <v>27310</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1776,8 +1776,8 @@
         <v>5000</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="0"/>
-        <v>33060</v>
+        <f t="shared" si="2"/>
+        <v>32310</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1794,8 +1794,8 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="0"/>
-        <v>32780</v>
+        <f t="shared" si="2"/>
+        <v>32030</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1812,8 +1812,8 @@
         <v>10000</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="0"/>
-        <v>42780</v>
+        <f t="shared" si="2"/>
+        <v>42030</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1830,8 +1830,8 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="0"/>
-        <v>32580</v>
+        <f t="shared" si="2"/>
+        <v>31830</v>
       </c>
     </row>
     <row r="123" spans="1:5">
